--- a/Algorithm/data_temp.xlsx
+++ b/Algorithm/data_temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -148,112 +148,265 @@
     <t>id_company</t>
   </si>
   <si>
-    <t>839373</t>
-  </si>
-  <si>
-    <t>839375</t>
-  </si>
-  <si>
-    <t>839386</t>
+    <t>860943</t>
+  </si>
+  <si>
+    <t>860944</t>
+  </si>
+  <si>
+    <t>860945</t>
+  </si>
+  <si>
+    <t>860946</t>
+  </si>
+  <si>
+    <t>848844</t>
+  </si>
+  <si>
+    <t>848845</t>
+  </si>
+  <si>
+    <t>848846</t>
+  </si>
+  <si>
+    <t>848847</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>5251112051</t>
-  </si>
-  <si>
-    <t>7831000122</t>
-  </si>
-  <si>
-    <t>1075247000036</t>
-  </si>
-  <si>
-    <t>1027800000084</t>
-  </si>
-  <si>
-    <t>1020900508232</t>
-  </si>
-  <si>
-    <t>АКВАНИКА ООО</t>
-  </si>
-  <si>
-    <t>АБ РОССИЯ АО</t>
-  </si>
-  <si>
-    <t>AKVANIKA OOO</t>
-  </si>
-  <si>
-    <t>AB ROSSIYA AO</t>
-  </si>
-  <si>
-    <t>GAZPROM GAZORASPREDELENIE CHERKESSK AO</t>
-  </si>
-  <si>
-    <t>OOO AKVANIKA</t>
-  </si>
-  <si>
-    <t>BANK ROSSIYA</t>
-  </si>
-  <si>
-    <t>AO GAZPROM GAZORASPREDELENIE CHERKESSK</t>
-  </si>
-  <si>
-    <t>AQUANIKA,  AQUANIKA LLC,  RUSSKOYE VREMYA LLC,  LLC RUSSKOYE VREMYA,  RUSSKOE VREMYA OOO,  OOO RUSSKOE VREMYA,  AQUANIKA,  RUSSKOYE VREMYA LLC,  ООО АКВАНИКА,  ООО АКВАНИКА,  OOO AKVANIKA,  AQUANIKA LLC,  LLC RUSSKOYE VREMYA,  OBSHCHESTVO S ORGANICHENNOI OTVETSTVENNOSTYU RUSSKOE VREMYA,  RUSSKOE VREMYA OOO,  RUSSKOYE VREMYA LLC,  ООО АКВАНИКА,  ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ АКВАНІКА,</t>
-  </si>
-  <si>
-    <t>, 81 , 81</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>ЗЕСТ, АО</t>
-  </si>
-  <si>
-    <t>AO ZEST</t>
-  </si>
-  <si>
-    <t>7825672870</t>
-  </si>
-  <si>
-    <t>1027809190507</t>
-  </si>
-  <si>
-    <t>НИЖЕГОРОДСКАЯ ОБЛ. Г. КУЛЕБАКИ С. САВАСЛЕЙКА УЛ. РОДНИКОВАЯ Д. 1/2</t>
-  </si>
-  <si>
-    <t>Г. САНКТ-ПЕТЕРБУРГ ПЛ. РАСТРЕЛЛИ Д. 2 ЛИТЕРА А</t>
-  </si>
-  <si>
-    <t>КАРАЧАЕВО-ЧЕРКЕССКАЯ РЕСП. Г. ЧЕРКЕССК УЛ. КАВКАЗСКАЯ Д. 126</t>
-  </si>
-  <si>
-    <t>2021-07-02 06:13:55.770000</t>
-  </si>
-  <si>
-    <t>2021-07-02 06:13:55.397000</t>
-  </si>
-  <si>
-    <t>2021-07-02 06:13:55.657000</t>
-  </si>
-  <si>
-    <t>5903057</t>
-  </si>
-  <si>
-    <t>1119372</t>
-  </si>
-  <si>
-    <t>49310</t>
+    <t>0571004786</t>
+  </si>
+  <si>
+    <t>5116001041</t>
+  </si>
+  <si>
+    <t>5407044770</t>
+  </si>
+  <si>
+    <t>5322010620</t>
+  </si>
+  <si>
+    <t>1150571000634</t>
+  </si>
+  <si>
+    <t>1105110000270</t>
+  </si>
+  <si>
+    <t>1075407033217</t>
+  </si>
+  <si>
+    <t>1065332010809</t>
+  </si>
+  <si>
+    <t>10 ОАО ФГКУ</t>
+  </si>
+  <si>
+    <t>10 СРЗ АО</t>
+  </si>
+  <si>
+    <t>1077 FM-НОВОСИБИРСК ООО</t>
+  </si>
+  <si>
+    <t>123 АРЗ АО</t>
+  </si>
+  <si>
+    <t>АЛЕКСЕЕВ ВЛАДИМИР СТЕПАНОВИЧ</t>
+  </si>
+  <si>
+    <t>АНИЧИН АЛЕКСЕЙ ВАСИЛЬЕВИЧ</t>
+  </si>
+  <si>
+    <t>АНТОНОВ ЕВГЕНИЙ ЮВЕНАЛЬЕВИЧ</t>
+  </si>
+  <si>
+    <t>АПАНАСЕНКО ЕЛЕНА МИХАЙЛОВНА</t>
+  </si>
+  <si>
+    <t>ФГКУ ДЕСЯТЫЙ ОТДЕЛЬНЫЙ АВИАЦИОННЫЙ ОТРЯД</t>
+  </si>
+  <si>
+    <t>АО 10 ОРДЕНА ТРУДОВОГО КРАСНОГО ЗНАМЕНИ СУДОРЕМОНТНЫЙ ЗАВОД</t>
+  </si>
+  <si>
+    <t>ООО 1077 FM - НОВОСИБИРСК</t>
+  </si>
+  <si>
+    <t>АО 123 АВИАЦИОННЫЙ РЕМОНТНЫЙ ЗАВОД</t>
+  </si>
+  <si>
+    <t>10 OAO FGKU</t>
+  </si>
+  <si>
+    <t>10 SRZ AO</t>
+  </si>
+  <si>
+    <t>1077 FM-NOVOSIBIRSK OOO</t>
+  </si>
+  <si>
+    <t>123 ARZ AO</t>
+  </si>
+  <si>
+    <t>ALEKSEEV VLADIMIR STEPANOVICH</t>
+  </si>
+  <si>
+    <t>ANICHIN ALEKSEY VASILEVICH</t>
+  </si>
+  <si>
+    <t>ANTONOV EVGENIY YUVENALEVICH</t>
+  </si>
+  <si>
+    <t>APANASENKO ELENA MIKHAYLOVNA</t>
+  </si>
+  <si>
+    <t>FGKU 10 OAO</t>
+  </si>
+  <si>
+    <t>AO 10 SRZ</t>
+  </si>
+  <si>
+    <t>OOO 1077 FM - NOVOSIBIRSK</t>
+  </si>
+  <si>
+    <t>AO 123 ARZ</t>
+  </si>
+  <si>
+    <t>ALEXSEYEV VLADIMIR STEPANOVICH</t>
+  </si>
+  <si>
+    <t>ANICHIN ALEKSEY VASILYEVICH</t>
+  </si>
+  <si>
+    <t>ANTONOV YEVGENI YUVENALIEVICH</t>
+  </si>
+  <si>
+    <t>APANASENKO ELENA MIKHAILOVNA</t>
+  </si>
+  <si>
+    <t>ALEXSEYEV VLADIMIR STEPANOVICH, АЛЕКСЕЕВ ВЛАДИМИР СТЕПАНОВИЧ, VLADIMIR STEPANOVICH ALEXSEYEV, ВЛАДИМИР СТЕПАНОВИЧ АЛЕКСЕЕВ,</t>
+  </si>
+  <si>
+    <t>ANICHIN ALEKSEY VASILYEVICH, ANICHIN ALEXEI VASILIEVICH, АНИЧИН АЛЕКСЕЙ ВАСИЛЬЕВИЧ, ANICHIN ALEXEI VASILYEVICH,</t>
+  </si>
+  <si>
+    <t>ANTONOV YEVGENI YUVENALIEVICH, АНТОНОВ ЕВГЕНИЙ ЮВЕНАЛЬЕВИЧ,</t>
+  </si>
+  <si>
+    <t>APANASENKO ELENA, APANASENKO ELENA MIKHAILOVNA, АПАНАСЕНКО ЕЛЕНА МИХАЙЛОВНА,</t>
+  </si>
+  <si>
+    <t>81 , 81</t>
+  </si>
+  <si>
+    <t>, 83,84,89 , 83,84,89</t>
+  </si>
+  <si>
+    <t>, 83,84 , 83,84</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>ФСБ РОССИИ | ФСБ РОССИИ</t>
+  </si>
+  <si>
+    <t>ОСК, АО | ОСК, АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | БАНК ГПБ (АО) | ГАЗКАРДСЕРВИС, ООО | ГПБ-УА, АО | ГАЗПРОМ-МЕДИА ХОЛДИНГ, АО | БАНК ГПБ (АО) | ГАЗКАРДСЕРВИС, ООО | ГПБ-УА, АО | ГАЗПРОМ-МЕДИА ХОЛДИНГ, АО</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | РОСТЕХ, ГОСУДАРСТВЕННАЯ КОРПОРАЦИЯ | РТ-ХИМКОМПОЗИТ, АО | ШВАБЕ, АО | РТ-СТРОЙТЕХ, АО | РОСТЕХ, ГОСУДАРСТВЕННАЯ КОРПОРАЦИЯ | РТ-ХИМКОМПОЗИТ, АО | ШВАБЕ, АО | РТ-СТРОЙТЕХ, АО</t>
+  </si>
+  <si>
+    <t>FSB ROSSII | FSB ROSSII</t>
+  </si>
+  <si>
+    <t>JSC USC | JSC USC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | BANK GPB (AO) | LLC GAZCARDSERVICE | GAZPROMBANK – ASSET MANAGEMENT JSC | OJSCMPANY GAZPROM-MEDIA HOLDING | BANK GPB (AO) | LLC GAZCARDSERVICE | GAZPROMBANK – ASSET MANAGEMENT JSC | OJSCMPANY GAZPROM-MEDIA HOLDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | STATE CORPORATION ROSTEC | AO RT-KHIMKOMPOZIT | AO SHVABE | AO RT-STROITEKH | STATE CORPORATION ROSTEC | AO RT-KHIMKOMPOZIT | AO SHVABE | AO RT-STROITEKH</t>
+  </si>
+  <si>
+    <t>7702232171 | 7702232171</t>
+  </si>
+  <si>
+    <t>7838395215 | 7838395215</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | 7744001497 | 7724199506 | 7722515837 | 7728668727 | 7744001497 | 7724199506 | 7722515837 | 7728668727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | 7704274402 | 7734613934 | 7717671799 | 7704727853 | 7704274402 | 7734613934 | 7717671799 | 7704727853</t>
+  </si>
+  <si>
+    <t>1037700012613 | 1037700012613</t>
+  </si>
+  <si>
+    <t>1079847085966 | 1079847085966</t>
+  </si>
+  <si>
+    <t>1027700167110 | 1027739027634 | 1047796382920 | 5087746018960 |  | 1027700167110 | 1027739027634 | 1047796382920 | 5087746018960</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | 1077799030847 | 1097746269785 | 1107746256727 | 1097746324400 | 1077799030847 | 1097746269785 | 1107746256727 | 1097746324400</t>
+  </si>
+  <si>
+    <t>ДАГЕСТАН РЕСП. Г. МАХАЧКАЛА ПРОСПЕКТ НАСРУТДИНОВА Д. 215 КОРП. 14</t>
+  </si>
+  <si>
+    <t>МУРМАНСКАЯ ОБЛ. Г. ПОЛЯРНЫЙ УЛ. ЗАВОДСКАЯ Д. 1</t>
+  </si>
+  <si>
+    <t>НОВОСИБИРСКАЯ ОБЛ. Г. НОВОСИБИРСК УЛ. ВЫСТАВОЧНАЯ Д. 15/1 ПОМ. 15</t>
+  </si>
+  <si>
+    <t>НОВГОРОДСКАЯ ОБЛ. СТАРОРУССКИЙ РАЙОН Г. СТАРАЯ РУССА МИКРОРАЙОН ГОРОДОК</t>
+  </si>
+  <si>
+    <t>2021-07-28 11:35:02.693000</t>
+  </si>
+  <si>
+    <t>2021-07-28 11:35:02.700000</t>
+  </si>
+  <si>
+    <t>2021-07-28 11:35:02.707000</t>
+  </si>
+  <si>
+    <t>2021-07-28 11:35:02.717000</t>
+  </si>
+  <si>
+    <t>2021-07-14 03:59:07.867000</t>
+  </si>
+  <si>
+    <t>2021-07-14 03:59:07.877000</t>
+  </si>
+  <si>
+    <t>2021-07-14 03:59:07.880000</t>
+  </si>
+  <si>
+    <t>2021-07-14 03:59:07.887000</t>
+  </si>
+  <si>
+    <t>9903066</t>
+  </si>
+  <si>
+    <t>84898</t>
+  </si>
+  <si>
+    <t>6190569</t>
+  </si>
+  <si>
+    <t>85212</t>
   </si>
   <si>
     <t>ALFA - X - Compliance FILE</t>
@@ -614,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,52 +912,61 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>95</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>111</v>
       </c>
       <c r="AK2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="AM2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AN2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="AP2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AQ2" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR2" t="s">
         <v>44</v>
@@ -815,61 +977,61 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="AE3" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AF3" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AG3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="AH3" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="AK3" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AM3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AP3" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AQ3" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR3" t="s">
         <v>45</v>
@@ -880,64 +1042,293 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="AA4" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="AE4" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AH4" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="AK4" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="AM4" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="AN4" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="AP4" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AQ4" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AR4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
